--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,24 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hgfygh</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>C:/Users/admin/Downloads/adcd467b-38a8-46f5-b7c4-157727a27216.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,54 +446,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Candle</t>
+          <t>Steak</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:/Users/admin/Downloads/f73161eb-5c90-46e9-9e98-9b6ad5e1c8fc_dllosas-bsit.jpg</t>
+          <t>C:/Users/admin/Downloads/PERL.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tite</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>120.5</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:/Users/admin/Downloads/1000125751.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>hgfygh</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>C:/Users/admin/Downloads/adcd467b-38a8-46f5-b7c4-157727a27216.jpg</t>
+          <t>C:/Users/admin/Downloads/image-removebg-preview (4).png</t>
         </is>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,34 +446,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Steak</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750</v>
+        <v>120.5</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>C:/Users/admin/Downloads/PERL.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cricket</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>120.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>C:/Users/admin/Downloads/image-removebg-preview (4).png</t>
         </is>
